--- a/static/data/xls/noto2.xlsx
+++ b/static/data/xls/noto2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hal/Documents/workspace/geocode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hal/Documents/workspace/noto-house-map/static/data/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791247A4-5A7C-AF4E-AAAB-052A36E63D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654A037-9393-A549-B39A-3FE34A6E1DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>共益費（円）</t>
   </si>
   <si>
-    <t>管理費）円）</t>
-  </si>
-  <si>
     <t>退去修繕 負担金（円）</t>
   </si>
   <si>
@@ -88,10 +85,6 @@
     <t>駐車料</t>
   </si>
   <si>
-    <t>備考
-（その他情報）</t>
-  </si>
-  <si>
     <t>緯度</t>
   </si>
   <si>
@@ -132,6 +125,12 @@
   </si>
   <si>
     <t>ペットは室内犬のみ可(猫は不可）</t>
+  </si>
+  <si>
+    <t>管理費（円）</t>
+  </si>
+  <si>
+    <t>備考（その他情報）</t>
   </si>
 </sst>
 </file>
@@ -498,7 +497,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,63 +537,63 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>20240130</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>301</v>
@@ -603,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>30000</v>
@@ -627,28 +626,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
       </c>
       <c r="V2">
         <v>4400</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X2">
         <v>36.291216899999988</v>
@@ -659,5 +658,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>